--- a/HelaMedical/File/NarcoReport.xlsx
+++ b/HelaMedical/File/NarcoReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">регистратор </t>
+  </si>
+  <si>
+    <t>год учета</t>
   </si>
 </sst>
 </file>
@@ -512,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,6 +687,9 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
